--- a/docs/PlaywrightTables.xlsx
+++ b/docs/PlaywrightTables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAutomation\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAutomation\Playwright\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC673F5F-A862-4BF4-843B-38142DC83E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F2C21-4BC2-4217-A318-DD820821D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="8100" windowWidth="14610" windowHeight="8205" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Codegen" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Autowaits" sheetId="3" r:id="rId3"/>
+    <sheet name="FinalExercise" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>Feature</t>
   </si>
@@ -182,13 +183,737 @@
   </si>
   <si>
     <t>Behavior text is returned.</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Receives Events</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Editable</t>
+  </si>
+  <si>
+    <t>locator.check()</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>locator.click()</t>
+  </si>
+  <si>
+    <t>locator.dblclick()</t>
+  </si>
+  <si>
+    <t>locator.set_checked()</t>
+  </si>
+  <si>
+    <t>locator.uncheck()</t>
+  </si>
+  <si>
+    <t>locator.hover()</t>
+  </si>
+  <si>
+    <t>locator.fill()</t>
+  </si>
+  <si>
+    <t>locator.clear()</t>
+  </si>
+  <si>
+    <t>locator.select_option()</t>
+  </si>
+  <si>
+    <t>locator.scroll_into_view_if_needed()</t>
+  </si>
+  <si>
+    <t>Gender is checked accordingly.</t>
+  </si>
+  <si>
+    <t>First name is populated with your own first name.</t>
+  </si>
+  <si>
+    <t>Last name is populated with your preferred bread. Do not provide your actual surname.</t>
+  </si>
+  <si>
+    <t>Date of birth dropdowns are populated.</t>
+  </si>
+  <si>
+    <t>Company name is populated.</t>
+  </si>
+  <si>
+    <t>Password is populated.</t>
+  </si>
+  <si>
+    <t>Confirm password is populated.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Launch a browser.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Browser is launched. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Maximize it as well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Go to https://demo.nopcommerce.com/.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert nopCommerce Page Logo/Image is displayed/visible. Hint: Use the alt-text for page locators.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the Register link on the top right part of the page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the Register header is displayed/visible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up the following details:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gender: Check the checkbox according to your gender,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> First Name: Provide your own first name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Last Name: Provide a name or type of bread, i.e. Croissant, Pain au Chocolat, Kabayan etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date of Birth: Provide a dummy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> birth day, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> year.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(13)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Email: Provide the email based on this format (lowercase only):
+&lt;bread type&gt;_&lt;first name&gt;@testemail.com
+Example: croissant_mark@testemail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email follows the format and is successfully populated. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(14)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the text value of the email field to be the correct value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Company Name: Provide any company name you like.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uncheck the Newsletter checkbox.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Newsletter checkbox is unticked. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(17)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that this checkbox is unchecked.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(18)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Password: Provide a unique password. Use the type method instead of fill, with a delay of 250ms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(19)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confirm Password: Use the same password created but add any last character at the end. Use the type method instead of fill, with a delay of 250ms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the Register button below.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(21)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the text value of the error showing below the Confirm password field: The password and confirmation password do not match.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update the Confirm password to match the same as the password. Use the type method instead of fill, with a delay of 250ms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Confirm password is updated. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(23)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the error element is no longer displayed/visible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(24)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the Register button below.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the resulting text value: Your registration completed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(26)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click Continue button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(27)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the Log out link if displayed/visible.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +925,41 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,10 +1143,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,8 +1191,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,6 +1222,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4389558</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9819280-537E-F066-4A7B-B8E2028B6B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="6858000"/>
+          <a:ext cx="11733333" cy="5580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA73F704-6249-4D9B-BC4A-A15E66341B8C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +1690,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,12 +1852,465 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB590041-27EF-4913-AF26-F5945D6E4730}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" location="visible" tooltip="Visible" display="https://playwright.dev/python/docs/actionability - visible" xr:uid="{14DC53BC-E3BE-46F1-87E0-646E8268F8B6}"/>
+    <hyperlink ref="C1" r:id="rId2" location="stable" tooltip="Stable" display="https://playwright.dev/python/docs/actionability - stable" xr:uid="{F7378F8A-5513-45A1-85B3-E8168832A3C5}"/>
+    <hyperlink ref="D1" r:id="rId3" location="receives-events" tooltip="Receives Events" display="https://playwright.dev/python/docs/actionability - receives-events" xr:uid="{BF13826C-6F8C-4489-8FC1-6430F77225F8}"/>
+    <hyperlink ref="E1" r:id="rId4" location="enabled" tooltip="Enabled" display="https://playwright.dev/python/docs/actionability - enabled" xr:uid="{6FDEFF94-AA61-4E00-9542-A40BC2273591}"/>
+    <hyperlink ref="F1" r:id="rId5" location="editable" tooltip="Editable" display="https://playwright.dev/python/docs/actionability - editable" xr:uid="{BE986BF8-3EFD-4CE9-8CF3-6DDB62C1EE89}"/>
+    <hyperlink ref="A2" r:id="rId6" location="locator-check" display="https://playwright.dev/python/docs/api/class-locator - locator-check" xr:uid="{2568D3EC-DDE0-4D1C-BF90-98DD4ADA160C}"/>
+    <hyperlink ref="A3" r:id="rId7" location="locator-click" display="https://playwright.dev/python/docs/api/class-locator - locator-click" xr:uid="{A012001C-FE62-4C67-B1B2-5032DD753FF2}"/>
+    <hyperlink ref="A4" r:id="rId8" location="locator-dblclick" display="https://playwright.dev/python/docs/api/class-locator - locator-dblclick" xr:uid="{D23EFF36-DCCC-494A-BECA-A4585DC82DAE}"/>
+    <hyperlink ref="A5" r:id="rId9" location="locator-set-checked" display="https://playwright.dev/python/docs/api/class-locator - locator-set-checked" xr:uid="{073BF055-F5BE-4E41-8672-BA68DEEA282F}"/>
+    <hyperlink ref="A6" r:id="rId10" location="locator-uncheck" display="https://playwright.dev/python/docs/api/class-locator - locator-uncheck" xr:uid="{0883ED33-0C17-42EF-B840-E3F619FB9B83}"/>
+    <hyperlink ref="A7" r:id="rId11" location="locator-hover" display="https://playwright.dev/python/docs/api/class-locator - locator-hover" xr:uid="{C3A1AF74-8148-4D8B-A491-1906782E383D}"/>
+    <hyperlink ref="A8" r:id="rId12" location="locator-fill" display="https://playwright.dev/python/docs/api/class-locator - locator-fill" xr:uid="{8C8A8BF8-3306-40C5-9B90-25DC49115C9B}"/>
+    <hyperlink ref="A9" r:id="rId13" location="locator-clear" display="https://playwright.dev/python/docs/api/class-locator - locator-clear" xr:uid="{ED229865-2773-4282-A64A-EB156844205E}"/>
+    <hyperlink ref="A10" r:id="rId14" location="locator-select-option" display="https://playwright.dev/python/docs/api/class-locator - locator-select-option" xr:uid="{3753258A-5BDA-44C9-A260-D91956660AB9}"/>
+    <hyperlink ref="A11" r:id="rId15" location="locator-scroll-into-view-if-needed" display="https://playwright.dev/python/docs/api/class-locator - locator-scroll-into-view-if-needed" xr:uid="{F72ED8C9-DBC1-4BC3-9E92-1357D76EFA14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC4181D-6E11-41CF-872B-51296A57C4FD}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/PlaywrightTables.xlsx
+++ b/docs/PlaywrightTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAutomation\Playwright\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F2C21-4BC2-4217-A318-DD820821D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CD5AE-BDEF-4429-ACB1-4B10EC8D5FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -1689,9 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BADF74-ADA4-4EA4-BD54-0AA1568A26A2}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2114,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC4181D-6E11-41CF-872B-51296A57C4FD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/PlaywrightTables.xlsx
+++ b/docs/PlaywrightTables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAutomation\Playwright\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAuto_Faci\PytestPlaywrightTraining\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CD5AE-BDEF-4429-ACB1-4B10EC8D5FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675C1F9-CD88-4ADC-8895-E8A083523DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Codegen" sheetId="2" r:id="rId2"/>
     <sheet name="Autowaits" sheetId="3" r:id="rId3"/>
-    <sheet name="FinalExercise" sheetId="4" r:id="rId4"/>
+    <sheet name="FinalExercise(NopCommerce)" sheetId="4" r:id="rId4"/>
+    <sheet name="FinalExercise(PHPTravels_Hotel)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
   <si>
     <t>Feature</t>
   </si>
@@ -317,52 +318,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Maximize it as well.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Go to https://demo.nopcommerce.com/.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Assert nopCommerce Page Logo/Image is displayed/visible. Hint: Use the alt-text for page locators.</t>
     </r>
   </si>
   <si>
@@ -906,6 +861,955 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Assert the Log out link if displayed/visible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.phptravels.net/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Go to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://demo.nopcommerce.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert PHPTravels Page Logo/Image is displayed/visible. Hint: Use the alt-text for page locators.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that the url is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.phptravels.net/hotels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the text "Search For Best Hotels" is visible/displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the dropdown for Search By City.</t>
+    </r>
+  </si>
+  <si>
+    <t>Search By City dropdown options are displayed.</t>
+  </si>
+  <si>
+    <t>"Dubai, United Arab Emirates" is selected.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on Checkin date.</t>
+    </r>
+  </si>
+  <si>
+    <t>Checkin date picker shows up.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click Hotels link on the top part of the page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Use get_by_role with the exact argument set to True.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert PHPTravels Page Logo/Image is displayed/visible.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Normally we will use the alt-text for images, but for some reason it is not working in this case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> On the dropdown options, select "Dubai, United Arab Emirates".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Even though we are dealing with a dropdown, select functions are not working here. Use the click method instead. Use Xpath.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select October 05, 2024.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: For date pickers, let's use get_by_role with role "cell" and the value you need to click. In this case "5". Also there are other numbers that may have 5's on the calendar so let's add ".first".</t>
+    </r>
+  </si>
+  <si>
+    <t>October 05, 2024 is selected and reflected on the Checkin field. It automatically moves to the Checkout field date picker.</t>
+  </si>
+  <si>
+    <t>October 06, 2024 is selected and reflected on the Checkout field.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select October 06, 2024.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: We can use the same way on the above step, but you may try using Xpath as well. Anchor on the 2nd "datepicker-days" class and run through tbody, tr and td tagnames.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(13)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the dropdown for Travellers and Rooms.</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional options for Rooms, Adults, and Childs are displayed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(14)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> By default, 2 Adults are selected. Decrease the number of the Adults by One (1) or set it to 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Use XPath and the 2nd instance of the "qtyDec" class.</t>
+    </r>
+  </si>
+  <si>
+    <t>Adults are now set to 1.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the Search button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Available Hotels for selection page is displayed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under Star Rating, check the 5 stars.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 star rating is selected.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(17)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under Price Sort by, check the Highest to Lower.</t>
+    </r>
+  </si>
+  <si>
+    <t>Descending or Highest to Lower is selected.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(18)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the Apply Filters button.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 star rating and Highest to Lower is applied on the available hotels.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(19)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View More</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Movenpick Grand AI Bustan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Details about Movenpick Grand Al Bustan is displayed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click Select Room. </t>
+    </r>
+  </si>
+  <si>
+    <t>Page will move to the selection room page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(21)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, click Book Now.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hotel Booking registration is displayed.</t>
+  </si>
+  <si>
+    <t>Example: Mark</t>
+  </si>
+  <si>
+    <t>Example: Croissant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(24)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Email: Provide the email based on this format (lowercase only):
+&lt;bread type&gt;_&lt;first name&gt;@testemail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(23) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last Name: Provide a name or type of bread, i.e. Croissant, Pain au Chocolat, Kabayan etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under Personal Information, update the following Fields:
+First Name: Provide your own first name.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: croissant_mark@testemail.com</t>
+  </si>
+  <si>
+    <t>Pay Later payment method is selected.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under Travellers Information, update the first name and last name being used earlier.</t>
+    </r>
+  </si>
+  <si>
+    <t>I agree to all Terms &amp; Condition is checked.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(26)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under Payment Methods, check the Pay Later.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(27)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Check the I agree to all Terms &amp; Condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(28)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click Booking Confirm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A new page will load including the details of the booking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(29)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert Payment Status text value is equal to "unpaid".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(30)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert if an Invoice QR Code is visible/displayed.</t>
     </r>
   </si>
 </sst>
@@ -1147,7 +2051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1204,6 +2108,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1689,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BADF74-ADA4-4EA4-BD54-0AA1568A26A2}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2112,7 +3019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC4181D-6E11-41CF-872B-51296A57C4FD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2148,10 +3057,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2159,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2170,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>66</v>
@@ -2181,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>67</v>
@@ -2192,7 +3101,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>68</v>
@@ -2203,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>69</v>
@@ -2214,10 +3123,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>70</v>
@@ -2236,10 +3145,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2247,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>71</v>
@@ -2258,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>72</v>
@@ -2267,10 +3176,10 @@
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2278,10 +3187,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2289,10 +3198,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,10 +3209,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2311,4 +3220,294 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC8B180-2D91-4552-B931-5A4467566257}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/PlaywrightTables.xlsx
+++ b/docs/PlaywrightTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAuto_Faci\PytestPlaywrightTraining\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675C1F9-CD88-4ADC-8895-E8A083523DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5971D500-5B8A-46FC-8FD0-959CB58E066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Autowaits" sheetId="3" r:id="rId3"/>
     <sheet name="FinalExercise(NopCommerce)" sheetId="4" r:id="rId4"/>
     <sheet name="FinalExercise(PHPTravels_Hotel)" sheetId="5" r:id="rId5"/>
+    <sheet name="FinalExercise(PHPTravels_Tours" sheetId="7" r:id="rId6"/>
+    <sheet name="FinalExercise(Magento)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="195">
   <si>
     <t>Feature</t>
   </si>
@@ -1810,6 +1812,1989 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Assert if an Invoice QR Code is visible/displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click Tours link on the top part of the page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Use get_by_role with the exact argument set to True.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that the url is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.phptravels.net/tours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the text "Find Best Tours" is visible/displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> On the dropdown options, select "Jeddah, Saudi Arabia".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Even though we are dealing with a dropdown, select functions are not working here. Use the click method instead. Use Xpath to anchor first on the parent div, then run through the children nodes.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Jeddah, Saudi Arabia" is selected.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on Date.</t>
+    </r>
+  </si>
+  <si>
+    <t>Date picker shows up.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select November 11, 2024.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: For date pickers, let's use get_by_role with role "cell" and the value you need to click. In this case "5". Also there are other numbers that may have 5's on the calendar so let's add ".first".</t>
+    </r>
+  </si>
+  <si>
+    <t>November 11, 2024 is selected and reflected on the Date field. It automatically moves to the Checkout field date picker.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://magento.softwaretestingboard.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Watches section will be displayed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that the current url is equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://magento.softwaretestingboard.com/gear/watches.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hover over the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Watches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <t>Luma Analog Watch price and specifications are displayed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the Add to Cart button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> On the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search Bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, beside the Cart Icon, search for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yoga Straps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Search Results for "Yoga Straps" is displayed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update the quantity of this item to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(14)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of quantities to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add to Cart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button again.</t>
+    </r>
+  </si>
+  <si>
+    <t>A mini window will show with the list of items recently added to cart.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cart Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the right part side of the page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(17)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceed to Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shipping Address page will be displayed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First Name field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mark</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Last Name field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Croissant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email Address field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>croissant_mark@testemail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">City field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeast City</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Street Address field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4444 Croissant Street</t>
+    </r>
+  </si>
+  <si>
+    <t>State/Province dropdown selected Alaska.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zip Code field is populated with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99631</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phone Number field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1532394331</t>
+    </r>
+  </si>
+  <si>
+    <t>Fixed Flat Rate radio button is checked.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shopping is successfully completed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(30)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the text "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thank you for your purchase!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(29)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Place Order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide any combination of 10 digit-numbers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(24) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zip Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Choose from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99501 - 99950</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(23)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State/Province</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alaska</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide any ingredient related to bread, i.e. Flour, Eggs, Yeast, Butter etc. and append City at the end.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(21)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Street Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide the street address in this format:
+&lt;4 digit-number&gt; &lt;bread type&gt; Street</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(19) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide a name or type of bread, i.e. Croissant, Pain au Chocolat, Kabayan etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All items' quantities will be set to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notice that the total quantity of the items added to cart is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>six (6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green banner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will popup with the link to the shopping cart.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quantity is updated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set of Sprite Yoga Straps price and specifications will be displayed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(13)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orange banner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shows up with the text: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please specify the quantity of product(s).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the LUMA logo/image is displayed/visible.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Normally we will use the alt-text for images, but the element here have a blank value for alt attribute.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the image of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luma Analog Watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Use of get_by_alt_text is highly recommended.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Head over to the last item (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set of Sprite Yoga Straps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and hover it, then click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button in it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Use of get_by_alt_text to hover over the element is highly recommended. On clicking the add to cart button, use XPath here to anchor on the parent element before the button element.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter and provide the following details:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use the attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s here are dynamic meaning it changes everytime. This is applicable until the 25th action.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(18) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide your own first name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(26)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under the Shipping Methods, click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed Flat Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> radio button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use the attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(20) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provide the email based on this format (lowercase only):
+&lt;bread type&gt;_&lt;first name&gt;@testemail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use XPath then anchor on the tagname </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fieldset</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parent first then connect with the input with name attribute.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Review &amp; Payments page is displayed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(28)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that the Order Total is equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$211.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use XPath and achor first on the tagname </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then connect with span.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(27)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use the attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-role</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -1817,7 +3802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,6 +3853,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1877,7 +3877,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2046,6 +4046,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2110,7 +4121,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2499,9 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA73F704-6249-4D9B-BC4A-A15E66341B8C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3226,7 +5235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC8B180-2D91-4552-B931-5A4467566257}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3424,10 +5433,10 @@
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3435,10 +5444,10 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="15" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3446,10 +5455,10 @@
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3460,7 +5469,7 @@
       <c r="B21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3477,10 +5486,10 @@
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3488,10 +5497,10 @@
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3499,11 +5508,586 @@
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="15" t="s">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67E994-C733-4961-9FE4-771F5BEAE9E6}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745C2BC-2335-4C03-A737-FAC4E9DA9B32}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PlaywrightTables.xlsx
+++ b/docs/PlaywrightTables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAuto_Faci\PytestPlaywrightTraining\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5971D500-5B8A-46FC-8FD0-959CB58E066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C555E28-71EE-45B2-A3E5-EE8774F8CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="FinalExercise(NopCommerce)" sheetId="4" r:id="rId4"/>
     <sheet name="FinalExercise(PHPTravels_Hotel)" sheetId="5" r:id="rId5"/>
     <sheet name="FinalExercise(PHPTravels_Tours" sheetId="7" r:id="rId6"/>
-    <sheet name="FinalExercise(Magento)" sheetId="8" r:id="rId7"/>
+    <sheet name="FinalExercise(Magento)" sheetId="10" r:id="rId7"/>
+    <sheet name="FinalExercise(MagAccountReg)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="209">
   <si>
     <t>Feature</t>
   </si>
@@ -2221,6 +2222,517 @@
     </r>
   </si>
   <si>
+    <t>A mini window will show with the list of items recently added to cart.</t>
+  </si>
+  <si>
+    <t>Shipping Address page will be displayed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First Name field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mark</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Last Name field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Croissant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email Address field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>croissant_mark@testemail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">City field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeast City</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Street Address field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4444 Croissant Street</t>
+    </r>
+  </si>
+  <si>
+    <t>State/Province dropdown selected Alaska.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zip Code field is populated with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99631</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phone Number field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1532394331</t>
+    </r>
+  </si>
+  <si>
+    <t>Fixed Flat Rate radio button is checked.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green banner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will popup with the link to the shopping cart.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quantity is updated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the LUMA logo/image is displayed/visible.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Normally we will use the alt-text for images, but the element here have a blank value for alt attribute.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the image of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luma Analog Watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hint: Use of get_by_alt_text is highly recommended.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create an Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Create New Customer Account page is displayed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert that the current url is equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://magento.softwaretestingboard.com/customer/account/create/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter and provide the following details:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(7) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">First Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide your own first name.</t>
+    </r>
+  </si>
+  <si>
+    <t>First Name field is populated. Example: Mark</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(8) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide a name or type of bread, i.e. Croissant, Pain au Chocolat, Kabayan etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(9) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide the email based on this format (lowercase only):
+&lt;bread type&gt;_&lt;first name&gt;@testemail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide a "Very Strong" password.</t>
+    </r>
+  </si>
+  <si>
+    <t>Password field is populated. Example: G@rf13ldStr3@m!</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2240,97 +2752,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> On the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search Bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, beside the Cart Icon, search for "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yoga Straps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <t>Search Results for "Yoga Straps" is displayed.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update the quantity of this item to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>three (3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key in the same password used in the password field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(13)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create an Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>My Account page will be displayed.</t>
   </si>
   <si>
     <r>
@@ -2352,71 +2863,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Update </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of quantities to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one (1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Click the </t>
     </r>
     <r>
@@ -2428,21 +2874,59 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Add to Cart </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>button again.</t>
-    </r>
-  </si>
-  <si>
-    <t>A mini window will show with the list of items recently added to cart.</t>
+      <t xml:space="preserve">Edit Address </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>under the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Default Billing Address.</t>
+    </r>
+  </si>
+  <si>
+    <t>Add New Address page will be displayed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter and provide additional details:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(15) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number: Provide any combination of 10 digit-numbers.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2455,514 +2939,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(16)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cart Icon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the right part side of the page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(17)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceed to Checkout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>Shipping Address page will be displayed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">First Name field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mark</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Last Name field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Croissant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Email Address field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>croissant_mark@testemail.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">City field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yeast City</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Street Address field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4444 Croissant Street</t>
-    </r>
-  </si>
-  <si>
-    <t>State/Province dropdown selected Alaska.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zip Code field is populated with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>99631</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phone Number field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1532394331</t>
-    </r>
-  </si>
-  <si>
-    <t>Fixed Flat Rate radio button is checked.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shopping is successfully completed. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(30)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Assert the text "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thank you for your purchase!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(29)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Place Order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(25)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Phone Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide any combination of 10 digit-numbers.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(24) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zip Code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Choose from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>99501 - 99950</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(23)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>State/Province</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alaska</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(22)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide any ingredient related to bread, i.e. Flour, Eggs, Yeast, Butter etc. and append City at the end.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(21)</t>
     </r>
     <r>
       <rPr>
@@ -2999,15 +2975,338 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(19) </t>
+      <t>Street Address 1st field is populated. Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4444 Croissant Street</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(17) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">City: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide any ingredient related to bread, i.e. Flour, Eggs, Yeast, Butter etc. and append City at the end.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">State/Province dropdown selected </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alaska</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zip Code field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99631</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(18)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> State/Province:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alaska</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(19)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zip Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Choose from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99501 - 99950</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click Save Address button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Address Book page is displayed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cart Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the right part side of the page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceed to Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(14) </t>
     </r>
     <r>
       <rPr>
@@ -3033,556 +3332,15 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">All items' quantities will be set to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one (1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Notice that the total quantity of the items added to cart is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>six (6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>green banner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will popup with the link to the shopping cart.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Quantity is updated to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>three (3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set of Sprite Yoga Straps price and specifications will be displayed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(13)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Assert that an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>orange banner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> shows up with the text: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please specify the quantity of product(s).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Assert the LUMA logo/image is displayed/visible.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hint: Normally we will use the alt-text for images, but the element here have a blank value for alt attribute.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click the image of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Luma Analog Watch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hint: Use of get_by_alt_text is highly recommended.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(12)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Head over to the last item (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Set of Sprite Yoga Straps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) and hover it, then click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add to Cart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button in it.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hint: Use of get_by_alt_text to hover over the element is highly recommended. On clicking the add to cart button, use XPath here to anchor on the parent element before the button element.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter and provide the following details:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hint: Use the attribute </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, instead of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">s. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s here are dynamic meaning it changes everytime. This is applicable until the 25th action.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(18) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>First Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide your own first name.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(26)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Under the Shipping Methods, click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fixed Flat Rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> radio button.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hint: Use the attribute </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instead of name.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(20) </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(15) </t>
     </r>
     <r>
       <rPr>
@@ -3642,6 +3400,358 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(17)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide any ingredient related to bread, i.e. Flour, Eggs, Yeast, Butter etc. and append City at the end.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(18)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State/Province</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alaska</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(19) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zip Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Choose from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99501 - 99950</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide any combination of 10 digit-numbers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(21)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Under the Shipping Methods, click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed Flat Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> radio button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use the attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hint: Use the attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-role</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Review &amp; Payments page is displayed. </t>
     </r>
     <r>
@@ -3653,7 +3763,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(28)</t>
+      <t>(23)</t>
     </r>
     <r>
       <rPr>
@@ -3674,7 +3784,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>$211.00</t>
+      <t>$144.00</t>
     </r>
     <r>
       <rPr>
@@ -3730,38 +3840,134 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(27)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.
+      <t>(24)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Place Order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shopping is successfully completed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Assert the text "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thank you for your purchase!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update the quantity of this item to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Use the .fill() method here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter and provide the following details:
 </t>
     </r>
     <r>
@@ -3783,7 +3989,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>data-role</t>
+      <t>name</t>
     </r>
     <r>
       <rPr>
@@ -3794,7 +4000,92 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">, instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s here are dynamic meaning it changes everytime. This is applicable until the 25th action. Also use the .type() method on the next fields with a delay of 100ms.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(13) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide your own first name.</t>
     </r>
   </si>
 </sst>
@@ -3802,7 +4093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3868,6 +4159,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3877,7 +4174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -4057,12 +4354,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4121,7 +4463,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5028,9 +5394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC4181D-6E11-41CF-872B-51296A57C4FD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5525,9 +5889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67E994-C733-4961-9FE4-771F5BEAE9E6}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5814,7 +6176,246 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745C2BC-2335-4C03-A737-FAC4E9DA9B32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E9FA5-8251-411C-A57C-65B7A24E629C}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194A0697-3CBA-41CB-97C1-BDA2E737FA83}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5822,8 +6423,8 @@
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,7 +6457,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5864,10 +6465,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5875,54 +6476,54 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>155</v>
+      <c r="B7" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5930,165 +6531,137 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/PlaywrightTables.xlsx
+++ b/docs/PlaywrightTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestAuto_Faci\PytestPlaywrightTraining\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C555E28-71EE-45B2-A3E5-EE8774F8CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546837C-4168-4552-9C12-C5EDEBFBA04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{AD419B32-48E6-4EDB-8983-7A309A04F84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -2292,22 +2292,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Street Address field is populated. Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4444 Croissant Street</t>
-    </r>
-  </si>
-  <si>
     <t>State/Province dropdown selected Alaska.</t>
   </si>
   <si>
@@ -4086,6 +4070,40 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Provide your own first name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Street Address field is populated. Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4444 Croissant Street</t>
     </r>
   </si>
 </sst>
@@ -4876,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA73F704-6249-4D9B-BC4A-A15E66341B8C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4971,7 +4989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BADF74-ADA4-4EA4-BD54-0AA1568A26A2}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5889,7 +5907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67E994-C733-4961-9FE4-771F5BEAE9E6}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6179,7 +6199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E9FA5-8251-411C-A57C-65B7A24E629C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6218,7 +6240,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6237,7 +6259,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>154</v>
@@ -6248,10 +6270,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6262,7 +6284,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6270,7 +6292,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>156</v>
@@ -6281,7 +6303,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>157</v>
@@ -6292,7 +6314,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>158</v>
@@ -6303,7 +6325,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>159</v>
@@ -6314,7 +6336,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>160</v>
@@ -6325,10 +6347,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6336,7 +6358,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>161</v>
@@ -6347,10 +6369,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6358,10 +6380,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6369,10 +6391,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6380,10 +6402,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6391,10 +6413,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6402,10 +6424,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6479,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6465,10 +6487,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6476,10 +6498,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6487,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>159</v>
@@ -6498,7 +6520,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>160</v>
@@ -6509,10 +6531,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6520,10 +6542,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6531,10 +6553,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6542,10 +6564,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6553,10 +6575,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6564,10 +6586,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6575,7 +6597,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>161</v>
@@ -6586,10 +6608,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6597,10 +6619,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6608,10 +6630,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
